--- a/v0.7/StructureDefinition-HCXProofOfPresenceExtension.xlsx
+++ b/v0.7/StructureDefinition-HCXProofOfPresenceExtension.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hcx-project.github.io/hcx-specs/v0.7/StructureDefinition-HCXProofOfPresenceExtension.html</t>
+    <t>https://ig.hcxprotocol.io/v0.7/StructureDefinition-HCXProofOfPresenceExtension.html</t>
   </si>
   <si>
     <t>Version</t>

--- a/v0.7/StructureDefinition-HCXProofOfPresenceExtension.xlsx
+++ b/v0.7/StructureDefinition-HCXProofOfPresenceExtension.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="146">
   <si>
     <t>Property</t>
   </si>
@@ -327,13 +327,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.url</t>
+    <t>Extension.extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -349,13 +343,117 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>ProofOfPresenceDocumentCode</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension.extension.value[x]</t>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>POPR Document Code</t>
+  </si>
+  <si>
+    <t>Proof of Presence Code</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://ig.hcxprotocol.io/v0.7/ValueSet-proof-of-presence-codes.html</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Required Flag</t>
+  </si>
+  <si>
+    <t>Indicates whether the document is required</t>
+  </si>
+  <si>
+    <t>ProofOfPresenceDocumentRequiredFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>POPR Document Required Flag</t>
+  </si>
+  <si>
+    <t>Proof of Presence Document Required Flag</t>
+  </si>
+  <si>
+    <t>mimeType</t>
+  </si>
+  <si>
+    <t>Mime type of the document</t>
+  </si>
+  <si>
+    <t>Indicates the mimetype</t>
+  </si>
+  <si>
+    <t>ProofOfPresenceDocumentMimeType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Document Mime type code</t>
+  </si>
+  <si>
+    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.0.1</t>
+  </si>
+  <si>
+    <t>claimUse</t>
+  </si>
+  <si>
+    <t>Claim use code</t>
+  </si>
+  <si>
+    <t>Indicates which stage of the claim that the document is required</t>
+  </si>
+  <si>
+    <t>ClinicalDiagnosticDocumentClaimUse</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/claim-use|4.0.1</t>
+  </si>
+  <si>
+    <t>documentationUrl</t>
+  </si>
+  <si>
+    <t>DocumentationUrl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url
+</t>
+  </si>
+  <si>
+    <t>Documention URL</t>
   </si>
   <si>
     <t>base64Binary
@@ -366,116 +464,6 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>ProofOfPresenceDocumentCode</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>POPR Document Code</t>
-  </si>
-  <si>
-    <t>Proof of Presence Code</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>https://hcx-valuesets/proofOfPresenceDocumentCodes</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Required Flag</t>
-  </si>
-  <si>
-    <t>Indicates whether the document is required</t>
-  </si>
-  <si>
-    <t>ProofOfPresenceDocumentRequiredFlag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>POPR Document Required Flag</t>
-  </si>
-  <si>
-    <t>Proof of Presence Document Required Flag</t>
-  </si>
-  <si>
-    <t>mimeType</t>
-  </si>
-  <si>
-    <t>Mime type of the document</t>
-  </si>
-  <si>
-    <t>Indicates the mimetype</t>
-  </si>
-  <si>
-    <t>ProofOfPresenceDocumentMimeType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Document Mime type code</t>
-  </si>
-  <si>
-    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.0.1</t>
-  </si>
-  <si>
-    <t>claimUse</t>
-  </si>
-  <si>
-    <t>Claim use code</t>
-  </si>
-  <si>
-    <t>Indicates which stage of the claim that the document is required</t>
-  </si>
-  <si>
-    <t>ClinicalDiagnosticDocumentClaimUse</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-use|4.0.1</t>
-  </si>
-  <si>
-    <t>documentationUrl</t>
-  </si>
-  <si>
-    <t>DocumentationUrl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url
-</t>
-  </si>
-  <si>
-    <t>Documention URL</t>
   </si>
 </sst>
 </file>
@@ -784,7 +772,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ51"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -793,7 +781,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.62890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.33203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.51171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -817,7 +805,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="59.25390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.99609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.30859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -1555,7 +1543,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>80</v>
@@ -1570,22 +1558,24 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>74</v>
@@ -1627,10 +1617,10 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -1642,23 +1632,23 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>74</v>
@@ -1670,17 +1660,15 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>74</v>
@@ -1705,59 +1693,59 @@
         <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="X9" s="2"/>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>80</v>
@@ -1772,17 +1760,15 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -1831,27 +1817,27 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1874,13 +1860,13 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1931,7 +1917,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -1943,26 +1929,26 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -1974,16 +1960,16 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1991,7 +1977,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>74</v>
@@ -2021,39 +2007,39 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2076,22 +2062,24 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>74</v>
@@ -2109,11 +2097,13 @@
         <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="X13" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y13" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>74</v>
@@ -2131,10 +2121,10 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -2143,25 +2133,23 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>80</v>
@@ -2176,13 +2164,13 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2233,29 +2221,31 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
       </c>
@@ -2264,7 +2254,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
@@ -2276,13 +2266,13 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2333,38 +2323,38 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>74</v>
@@ -2376,17 +2366,15 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -2423,31 +2411,31 @@
         <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>85</v>
@@ -2455,18 +2443,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -2478,15 +2466,17 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -2523,31 +2513,31 @@
         <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>85</v>
@@ -2555,18 +2545,18 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -2578,16 +2568,16 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2595,7 +2585,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>74</v>
@@ -2625,39 +2615,39 @@
         <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2680,17 +2670,15 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -2715,13 +2703,13 @@
         <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>74</v>
@@ -2739,29 +2727,31 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>74</v>
       </c>
@@ -2782,13 +2772,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2839,27 +2829,27 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2867,7 +2857,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>80</v>
@@ -2882,24 +2872,22 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>74</v>
@@ -2941,10 +2929,10 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -2956,23 +2944,23 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -2984,15 +2972,17 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3029,52 +3019,50 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3086,22 +3074,24 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>74</v>
@@ -3143,27 +3133,27 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3171,7 +3161,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>80</v>
@@ -3186,13 +3176,13 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3219,13 +3209,11 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3243,7 +3231,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3255,26 +3243,28 @@
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -3289,14 +3279,12 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -3333,16 +3321,16 @@
         <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>92</v>
@@ -3360,12 +3348,12 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3465,7 +3453,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3567,7 +3555,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3590,16 +3578,16 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3607,7 +3595,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>74</v>
@@ -3649,27 +3637,27 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3677,7 +3665,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>80</v>
@@ -3692,13 +3680,13 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3749,7 +3737,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -3761,15 +3749,15 @@
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3792,16 +3780,16 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -3809,7 +3797,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>74</v>
@@ -3851,27 +3839,27 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3879,10 +3867,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>74</v>
@@ -3894,13 +3882,13 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3927,13 +3915,13 @@
         <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -3951,7 +3939,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -3963,2030 +3951,10 @@
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X40" s="2"/>
-      <c r="Y40" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/v0.7/StructureDefinition-HCXProofOfPresenceExtension.xlsx
+++ b/v0.7/StructureDefinition-HCXProofOfPresenceExtension.xlsx
@@ -250,53 +250,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>proofOfPresenceDocumentCode</t>
@@ -782,16 +782,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.51171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="29.515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="50.69921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -800,23 +800,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="59.25390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="59.2578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.3125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1023,7 +1023,7 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1042,25 +1042,25 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1111,27 +1111,27 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1154,13 +1154,13 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1199,19 +1199,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1223,7 +1223,7 @@
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>93</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>76</v>
@@ -1256,7 +1256,7 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>94</v>
@@ -1313,7 +1313,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1325,7 +1325,7 @@
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -1344,25 +1344,25 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1413,22 +1413,22 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1456,7 +1456,7 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>99</v>
@@ -1503,19 +1503,19 @@
         <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -1527,10 +1527,10 @@
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1543,10 +1543,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>74</v>
@@ -1620,10 +1620,10 @@
         <v>108</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
@@ -1645,10 +1645,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>74</v>
@@ -1721,7 +1721,7 @@
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>118</v>
@@ -1748,7 +1748,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>74</v>
@@ -1760,7 +1760,7 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>119</v>
@@ -1817,7 +1817,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -1829,7 +1829,7 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
@@ -1848,25 +1848,25 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1917,22 +1917,22 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -1960,7 +1960,7 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>99</v>
@@ -2007,19 +2007,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB12" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2031,10 +2031,10 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -2047,10 +2047,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -2124,10 +2124,10 @@
         <v>108</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
@@ -2149,10 +2149,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -2227,7 +2227,7 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>125</v>
@@ -2266,7 +2266,7 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>126</v>
@@ -2323,7 +2323,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2335,7 +2335,7 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>74</v>
@@ -2354,25 +2354,25 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J16" t="s" s="2">
+      <c r="K16" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2423,22 +2423,22 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -2466,7 +2466,7 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>99</v>
@@ -2513,19 +2513,19 @@
         <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AB17" t="s" s="2">
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
+      <c r="AE17" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -2537,10 +2537,10 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -2553,10 +2553,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -2630,10 +2630,10 @@
         <v>108</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
@@ -2655,10 +2655,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>74</v>
@@ -2733,7 +2733,7 @@
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>133</v>
@@ -2760,7 +2760,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -2772,7 +2772,7 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>134</v>
@@ -2829,7 +2829,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -2841,7 +2841,7 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>74</v>
@@ -2860,25 +2860,25 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J21" t="s" s="2">
+      <c r="K21" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2929,22 +2929,22 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -2972,7 +2972,7 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>99</v>
@@ -3019,19 +3019,19 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
+      <c r="AE22" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3043,10 +3043,10 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -3059,10 +3059,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3136,10 +3136,10 @@
         <v>108</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -3161,10 +3161,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -3237,7 +3237,7 @@
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>139</v>
@@ -3264,7 +3264,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -3276,7 +3276,7 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>119</v>
@@ -3333,7 +3333,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3345,7 +3345,7 @@
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>74</v>
@@ -3364,25 +3364,25 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J26" t="s" s="2">
+      <c r="K26" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3433,22 +3433,22 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -3476,7 +3476,7 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>99</v>
@@ -3523,19 +3523,19 @@
         <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AB27" t="s" s="2">
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
+      <c r="AE27" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -3547,10 +3547,10 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -3563,10 +3563,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -3640,10 +3640,10 @@
         <v>108</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -3665,10 +3665,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
@@ -3743,7 +3743,7 @@
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -3765,10 +3765,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -3842,10 +3842,10 @@
         <v>108</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -3945,7 +3945,7 @@
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
